--- a/phase_1/control_unit_circuit.xlsx
+++ b/phase_1/control_unit_circuit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUFE_CMP_2024\Third_year\first_semester\CMP3010_CA\Computer-Architecture-Labs\project\RISC-Processor\phase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8BA09-81B7-4728-ADBC-5165E78C6CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C361D-00C5-4C7C-AC6E-C6F44090F907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1BD962D7-94E7-4A12-8AB1-8417638FC4C3}"/>
+    <workbookView xWindow="5760" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{1BD962D7-94E7-4A12-8AB1-8417638FC4C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,8 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE95EDD-CC52-4E67-B9BF-D562F67CA96E}">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R33"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +639,7 @@
     <col min="15" max="15" width="20.88671875" customWidth="1"/>
     <col min="16" max="16" width="40.109375" customWidth="1"/>
     <col min="17" max="17" width="23.109375" customWidth="1"/>
-    <col min="18" max="18" width="40.77734375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="40.77734375" customWidth="1"/>
     <col min="19" max="19" width="23.5546875" customWidth="1"/>
     <col min="20" max="20" width="20.5546875" customWidth="1"/>
     <col min="21" max="21" width="12.33203125" customWidth="1"/>
@@ -683,7 +681,7 @@
       <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
       <c r="S1" t="s">
@@ -757,7 +755,7 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
@@ -831,7 +829,7 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
@@ -905,7 +903,7 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
@@ -979,7 +977,7 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
@@ -1053,7 +1051,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
@@ -1127,7 +1125,7 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
@@ -1201,7 +1199,7 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
@@ -1275,7 +1273,7 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
@@ -1349,7 +1347,7 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
@@ -1423,7 +1421,7 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
@@ -1497,7 +1495,7 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
@@ -1571,7 +1569,7 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
@@ -1645,7 +1643,7 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
@@ -1719,7 +1717,7 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
@@ -1793,7 +1791,7 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
@@ -1867,7 +1865,7 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
@@ -1941,7 +1939,7 @@
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
@@ -2024,6 +2022,39 @@
       <c r="T19" s="7">
         <v>0</v>
       </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="6:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G20" s="11" t="s">
@@ -2056,7 +2087,7 @@
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20">
         <v>1</v>
       </c>
       <c r="S20">
@@ -2130,7 +2161,7 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
@@ -2204,7 +2235,7 @@
       <c r="Q22" s="9">
         <v>0</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="9">
         <v>0</v>
       </c>
       <c r="S22" s="9">
@@ -2281,7 +2312,7 @@
       <c r="Q23" s="9">
         <v>0</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="9">
         <v>0</v>
       </c>
       <c r="S23" s="9">
@@ -2355,7 +2386,7 @@
       <c r="Q24" s="9">
         <v>0</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="9">
         <v>0</v>
       </c>
       <c r="S24" s="9">
@@ -2429,7 +2460,7 @@
       <c r="Q25" s="9">
         <v>0</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="9">
         <v>0</v>
       </c>
       <c r="S25" s="9">
@@ -2503,7 +2534,7 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
@@ -2577,7 +2608,7 @@
       <c r="Q27" s="2">
         <v>1</v>
       </c>
-      <c r="R27" s="12">
+      <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
@@ -2651,7 +2682,7 @@
       <c r="Q28" s="2">
         <v>1</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
@@ -2710,13 +2741,46 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <v>0</v>
       </c>
     </row>
@@ -2736,13 +2800,46 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <v>0</v>
       </c>
     </row>
@@ -2762,13 +2859,46 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>0</v>
       </c>
     </row>
@@ -2788,7 +2918,7 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
@@ -2797,8 +2927,41 @@
       <c r="T32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="F33" s="9" t="s">
         <v>53</v>
       </c>
@@ -2817,7 +2980,7 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
@@ -2826,15 +2989,48 @@
       <c r="T33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="N34" s="4"/>
       <c r="O34" s="5"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N35" s="4"/>
     </row>
   </sheetData>
@@ -2847,92 +3043,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECFCA92-BDA2-437D-912C-D2E21BC207CD}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12">
+      <c r="A1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17">
         <v>1</v>
       </c>
     </row>
@@ -2942,72 +3138,72 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="A23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32">
         <v>0</v>
       </c>
     </row>
